--- a/docs/base/CodeSystem-identifier-domain.xlsx
+++ b/docs/base/CodeSystem-identifier-domain.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.lt/fhir/CodeSystem/identifier-domain</t>
+    <t>https://hl7.lt/fhir/tx/CodeSystem/identifier-domain</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T15:58:38+02:00</t>
+    <t>2025-10-30T19:04:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>3</t>
+    <t>13</t>
   </si>
   <si>
     <t>Level</t>
@@ -144,7 +144,7 @@
     <t>http://esveikata.lt/Identifier/SVEIDRAID</t>
   </si>
   <si>
-    <t>VEIDRA identifier</t>
+    <t>SVEIDRA identifier</t>
   </si>
   <si>
     <t>http://esveikata.lt/classifiers/Identifier/JAR</t>
@@ -157,6 +157,69 @@
   </si>
   <si>
     <t>ESPBI id</t>
+  </si>
+  <si>
+    <t>http://esveikata.lt/Identifier/VAPRIS</t>
+  </si>
+  <si>
+    <t>VAPRIS</t>
+  </si>
+  <si>
+    <t>http://esveikata.lt/Identifier/SPILIS</t>
+  </si>
+  <si>
+    <t>SPĮLIS</t>
+  </si>
+  <si>
+    <t>SPĮLIS veiklos vietos identifikatorius</t>
+  </si>
+  <si>
+    <t>http://esveikata.lt/Identifier/PersonalCode</t>
+  </si>
+  <si>
+    <t>Personal Code</t>
+  </si>
+  <si>
+    <t>http://esveikata.lt/Identifier/Patient/ESI</t>
+  </si>
+  <si>
+    <t>ESI code</t>
+  </si>
+  <si>
+    <t>http://esveikata.lt/Identifier/Patient/DIK</t>
+  </si>
+  <si>
+    <t>DIK</t>
+  </si>
+  <si>
+    <t>http://esveikata.lt/Identifier/Patient/SveidraID</t>
+  </si>
+  <si>
+    <t>SveidraID</t>
+  </si>
+  <si>
+    <t>http://esveikata.lt/Identifier/Patient/eFormNumber</t>
+  </si>
+  <si>
+    <t>eFormNumber</t>
+  </si>
+  <si>
+    <t>http://esveikata.lt/Identifier/Patient/ForeignPersonalCode</t>
+  </si>
+  <si>
+    <t>ForeignPersonalCode</t>
+  </si>
+  <si>
+    <t>http://esveikata.lt/Identifier/eDelivery</t>
+  </si>
+  <si>
+    <t>eDelivery</t>
+  </si>
+  <si>
+    <t>http://esveikata.lt/classifiers/IdentityDocument/SerieNumber</t>
+  </si>
+  <si>
+    <t>SerieNumber</t>
   </si>
 </sst>
 </file>
@@ -471,7 +534,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -533,6 +596,146 @@
         <v>47</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
